--- a/data/trans_orig/P64D$andando_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>32355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22512</v>
+        <v>22247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45657</v>
+        <v>44715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1631999261155413</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1135525818211619</v>
+        <v>0.1122134672816987</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2302968541950947</v>
+        <v>0.2255424327942482</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -762,19 +762,19 @@
         <v>40394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32314</v>
+        <v>32436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50159</v>
+        <v>50124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2670198309140826</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.213606117852776</v>
+        <v>0.2144090307223048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3315659083604182</v>
+        <v>0.3313371547684709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -783,19 +783,19 @@
         <v>72750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59892</v>
+        <v>59500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89283</v>
+        <v>87772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2081335508102</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1713500484566212</v>
+        <v>0.1702266240952062</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2554361782851073</v>
+        <v>0.2511114763121138</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1727</v>
+        <v>929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14588</v>
+        <v>14357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02495218754507309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008708965713512276</v>
+        <v>0.0046873516477942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07358014820766066</v>
+        <v>0.07241650697444273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>4947</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>923</v>
+        <v>1713</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14041</v>
+        <v>14081</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01415279187391846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00264024735951075</v>
+        <v>0.004900655673432286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04016966216974008</v>
+        <v>0.0402848416045093</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14732</v>
+        <v>11523</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01430447869092731</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0743079217525231</v>
+        <v>0.05812168584044043</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -896,19 +896,19 @@
         <v>3462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1456</v>
+        <v>1040</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7718</v>
+        <v>7327</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02288631859910754</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009625006225415388</v>
+        <v>0.006872792442675335</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05101814860990182</v>
+        <v>0.04843332350641843</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -917,19 +917,19 @@
         <v>6298</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2340</v>
+        <v>2392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17046</v>
+        <v>18185</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01801872957925247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006695323438749728</v>
+        <v>0.006843388832637023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04876886508258043</v>
+        <v>0.05202708810872174</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4307</v>
+        <v>4200</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004318665988626002</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0217247465128518</v>
+        <v>0.0211856730592211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4411</v>
+        <v>5059</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002449531961860504</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01261889667279699</v>
+        <v>0.01447471230010779</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>163754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>149478</v>
+        <v>149548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173769</v>
+        <v>174774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8259804693639435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7539725307642643</v>
+        <v>0.7543249256044463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8764972764192059</v>
+        <v>0.8815658920070129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>195</v>
@@ -1030,19 +1030,19 @@
         <v>114498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105413</v>
+        <v>104822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122947</v>
+        <v>122095</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7568651744365643</v>
+        <v>0.7568651744365644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6968089402834067</v>
+        <v>0.6929078507593106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8127154892969509</v>
+        <v>0.8070828525497995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>364</v>
@@ -1051,19 +1051,19 @@
         <v>278252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>260674</v>
+        <v>262431</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>292081</v>
+        <v>292219</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7960671234698802</v>
+        <v>0.79606712346988</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7457792001732929</v>
+        <v>0.7508056949577493</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8356312610447824</v>
+        <v>0.8360258233647677</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>7002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14090</v>
+        <v>13801</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03531867046813572</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01563383451680238</v>
+        <v>0.01563672054381139</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07107104622686534</v>
+        <v>0.06961376837711236</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1101,19 +1101,19 @@
         <v>4139</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8601</v>
+        <v>8419</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02736010114827907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0128163895903808</v>
+        <v>0.01280068540498762</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05685498874458961</v>
+        <v>0.05565500659487019</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1122,19 +1122,19 @@
         <v>11141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6211</v>
+        <v>6405</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18820</v>
+        <v>18829</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03187417331107525</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01777063489916051</v>
+        <v>0.01832545462772798</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05384337168320311</v>
+        <v>0.05386784503915763</v>
       </c>
     </row>
     <row r="10">
@@ -1155,19 +1155,19 @@
         <v>51495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35745</v>
+        <v>35247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68473</v>
+        <v>67952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2053531447389053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.142544287022196</v>
+        <v>0.1405611280206351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.273058390944793</v>
+        <v>0.270980712930158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -1176,19 +1176,19 @@
         <v>49731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39272</v>
+        <v>39600</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60820</v>
+        <v>60046</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2926079410771426</v>
+        <v>0.2926079410771427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2310730867088163</v>
+        <v>0.2330014908647859</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3578555269620275</v>
+        <v>0.3532986639701501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -1197,19 +1197,19 @@
         <v>101226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83028</v>
+        <v>82361</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120882</v>
+        <v>123701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2406013452183149</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1973475004183962</v>
+        <v>0.1957629887593223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2873227711439933</v>
+        <v>0.2940225135497953</v>
       </c>
     </row>
     <row r="11">
@@ -1229,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8021</v>
+        <v>7241</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.005732669339885619</v>
+        <v>0.00573266933988562</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.031985097059847</v>
+        <v>0.02887773992210733</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1247,19 +1247,19 @@
         <v>2775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7681</v>
+        <v>7584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01632994761179423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00422204033798588</v>
+        <v>0.004276405231357038</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0451948412064867</v>
+        <v>0.0446207745062096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1268,19 +1268,19 @@
         <v>4213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1123</v>
+        <v>961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10557</v>
+        <v>10155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01001363731803943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002669157299561901</v>
+        <v>0.002285239872807258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02509288464520087</v>
+        <v>0.02413773514448642</v>
       </c>
     </row>
     <row r="12">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10723</v>
+        <v>11699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01294131878969565</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04276153574463074</v>
+        <v>0.04665455795083207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1321,16 +1321,16 @@
         <v>692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5800</v>
+        <v>6013</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01289332726960843</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004071484808406626</v>
+        <v>0.004071333432424613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03412611994441808</v>
+        <v>0.0353817367516576</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1339,19 +1339,19 @@
         <v>5437</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2111</v>
+        <v>1507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13920</v>
+        <v>12317</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01292193172110645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005018786921305551</v>
+        <v>0.003582488643614032</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03308731596835627</v>
+        <v>0.02927518994470062</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>6170</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1505</v>
+        <v>1473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14439</v>
+        <v>14797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02460460426582673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006000334987151815</v>
+        <v>0.005873167055793372</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05758204524714382</v>
+        <v>0.05900711443239858</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1389,19 +1389,19 @@
         <v>3216</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8803</v>
+        <v>9621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01892426135481216</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003805554038733281</v>
+        <v>0.003792933001560467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05179609926064863</v>
+        <v>0.05660802212401371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1410,19 +1410,19 @@
         <v>9386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3920</v>
+        <v>4086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18833</v>
+        <v>18951</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02230992392592784</v>
+        <v>0.02230992392592783</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009317152171633687</v>
+        <v>0.009711076284905315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04476402672249161</v>
+        <v>0.04504476053057237</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>198704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181503</v>
+        <v>180631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213485</v>
+        <v>215079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7923996767595431</v>
+        <v>0.7923996767595433</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.723806782714661</v>
+        <v>0.720327654874617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8513458224142214</v>
+        <v>0.8577016686730009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1460,19 +1460,19 @@
         <v>123991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112768</v>
+        <v>113290</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134279</v>
+        <v>133653</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7295430271564021</v>
+        <v>0.729543027156402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6635088519819159</v>
+        <v>0.6665788402779547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7900769785582138</v>
+        <v>0.7863950922179967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>281</v>
@@ -1481,19 +1481,19 @@
         <v>322695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301952</v>
+        <v>302182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341771</v>
+        <v>341785</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.767007562174954</v>
+        <v>0.7670075621749539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.717704159492442</v>
+        <v>0.7182512016218204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8123501014002805</v>
+        <v>0.8123841466400722</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>12087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5881</v>
+        <v>5574</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23208</v>
+        <v>22926</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04820120808108225</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02345189414288711</v>
+        <v>0.02222659124763091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09255029525428482</v>
+        <v>0.09142715528071078</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1531,19 +1531,19 @@
         <v>10671</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5241</v>
+        <v>5447</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19944</v>
+        <v>19981</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06278439964444781</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03083594692056175</v>
+        <v>0.03204909640705421</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1173496972915369</v>
+        <v>0.1175635879393384</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>18</v>
@@ -1552,19 +1552,19 @@
         <v>22758</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13968</v>
+        <v>13581</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>38014</v>
+        <v>37456</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.05409235998822253</v>
+        <v>0.05409235998822254</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03320004408668537</v>
+        <v>0.03228120987268632</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09035402335291778</v>
+        <v>0.08902927965562285</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>35627</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26786</v>
+        <v>26887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48200</v>
+        <v>46222</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2402295852032198</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1806149814784004</v>
+        <v>0.1812957009755383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3250122986855034</v>
+        <v>0.3116729256424385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -1606,19 +1606,19 @@
         <v>49728</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39637</v>
+        <v>41002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>58457</v>
+        <v>59711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4133741519603567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3294867730700982</v>
+        <v>0.3408357080413748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4859332826262915</v>
+        <v>0.4963556444938548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1627,19 +1627,19 @@
         <v>85355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71490</v>
+        <v>71474</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100285</v>
+        <v>99194</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3177763135304752</v>
+        <v>0.3177763135304753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2661551408997923</v>
+        <v>0.2660978690409346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3733611556239744</v>
+        <v>0.3693003087840566</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>2771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7985</v>
+        <v>7443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01868584672175344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006074097038857362</v>
+        <v>0.006104913542885448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05384466480375009</v>
+        <v>0.05018873854640771</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1677,19 +1677,19 @@
         <v>2091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6169</v>
+        <v>5739</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01737959642726575</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005495682160974884</v>
+        <v>0.005624305445193813</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05128147323411204</v>
+        <v>0.04770393572645584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1698,19 +1698,19 @@
         <v>4862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2031</v>
+        <v>1648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9949</v>
+        <v>9626</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01810081284739504</v>
+        <v>0.01810081284739505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007560603162693243</v>
+        <v>0.006133635994330278</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03704166168280009</v>
+        <v>0.03583586411998037</v>
       </c>
     </row>
     <row r="18">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7553</v>
+        <v>7134</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01456846297251582</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05092839266764362</v>
+        <v>0.04810744597286138</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1748,19 +1748,19 @@
         <v>1895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5215</v>
+        <v>5839</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0157502014693286</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004804044683000858</v>
+        <v>0.0048696597605419</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04335084070899349</v>
+        <v>0.04853465127326795</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1769,19 +1769,19 @@
         <v>4055</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9713</v>
+        <v>8860</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01509773140919012</v>
+        <v>0.01509773140919013</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00482023782620821</v>
+        <v>0.004785912610701139</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03616231386941365</v>
+        <v>0.03298581822845207</v>
       </c>
     </row>
     <row r="19">
@@ -1798,19 +1798,19 @@
         <v>3532</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8091</v>
+        <v>8959</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02381515298439403</v>
+        <v>0.02381515298439402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005966062580286512</v>
+        <v>0.005943959403040787</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05455985001492435</v>
+        <v>0.06041154005912714</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1832,19 +1832,19 @@
         <v>3532</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8179</v>
+        <v>8932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01314899560422484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003280070958791633</v>
+        <v>0.003260831101750997</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03044935571164501</v>
+        <v>0.03325473809185493</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>122556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113018</v>
+        <v>112616</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130683</v>
+        <v>130005</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8263962909305408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.762077531977131</v>
+        <v>0.7593684858103535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.881195561646168</v>
+        <v>0.8766258771480145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1882,19 +1882,19 @@
         <v>72733</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62421</v>
+        <v>62941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81263</v>
+        <v>81428</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6045998517055204</v>
+        <v>0.6045998517055203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5188842242245584</v>
+        <v>0.5232059692011052</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6755052660500852</v>
+        <v>0.6768765106932367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>219</v>
@@ -1903,19 +1903,19 @@
         <v>195289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>181823</v>
+        <v>181425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208429</v>
+        <v>207288</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.727059716074799</v>
+        <v>0.7270597160747991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6769261355190782</v>
+        <v>0.6754433152629132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7759803477941808</v>
+        <v>0.7717310833280785</v>
       </c>
     </row>
     <row r="21">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7026</v>
+        <v>6175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01268911657626796</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0473789563939454</v>
+        <v>0.04163894212131243</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1953,19 +1953,19 @@
         <v>12074</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6794</v>
+        <v>6909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21015</v>
+        <v>19949</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1003677635259051</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05647756938241032</v>
+        <v>0.05742848682887079</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1746863587574779</v>
+        <v>0.1658281651436737</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1974,19 +1974,19 @@
         <v>13956</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8258</v>
+        <v>8061</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22490</v>
+        <v>22883</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0519579908034438</v>
+        <v>0.05195799080344381</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03074311649261896</v>
+        <v>0.03001153995585249</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08373029240038933</v>
+        <v>0.08519173245543216</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>43805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30649</v>
+        <v>30064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60275</v>
+        <v>62276</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2105119084365198</v>
+        <v>0.2105119084365197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1472907465143645</v>
+        <v>0.1444780135077203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2896625929863634</v>
+        <v>0.2992779772101362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2028,19 +2028,19 @@
         <v>59848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46614</v>
+        <v>47823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73081</v>
+        <v>73995</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3354148658859748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2612459211267878</v>
+        <v>0.2680187118441333</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4095779515329326</v>
+        <v>0.4147005474707823</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -2049,19 +2049,19 @@
         <v>103653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85210</v>
+        <v>85356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>125222</v>
+        <v>125363</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2681714894324319</v>
+        <v>0.268171489432432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2204556151209689</v>
+        <v>0.2208326334452887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.323973642971068</v>
+        <v>0.3243390714319742</v>
       </c>
     </row>
     <row r="23">
@@ -2078,19 +2078,19 @@
         <v>10420</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3183</v>
+        <v>3774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28171</v>
+        <v>28333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05007425458731917</v>
+        <v>0.05007425458731916</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01529479157557644</v>
+        <v>0.01813594950442607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1353802890827556</v>
+        <v>0.1361606198459389</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5421</v>
+        <v>5598</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009361669604770912</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03037900377514141</v>
+        <v>0.03137472341473021</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2120,19 +2120,19 @@
         <v>12090</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5161</v>
+        <v>4504</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31562</v>
+        <v>28678</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03127989903889945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01335141968942398</v>
+        <v>0.01165255632519766</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08165613821271356</v>
+        <v>0.07419536825092807</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>17863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9550</v>
+        <v>9235</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31215</v>
+        <v>32077</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08584196715645945</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04589327218490343</v>
+        <v>0.04437790950248512</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1500086673222966</v>
+        <v>0.1541521119644633</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2170,19 +2170,19 @@
         <v>6128</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3119</v>
+        <v>3356</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11654</v>
+        <v>12033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03434528675347676</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01748246095286218</v>
+        <v>0.01881039481002087</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06531165013261972</v>
+        <v>0.06743805547266921</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2191,19 +2191,19 @@
         <v>23991</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14737</v>
+        <v>14891</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37693</v>
+        <v>38926</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06206929535308785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03812737110603921</v>
+        <v>0.03852626183126397</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0975189733404916</v>
+        <v>0.1007096202896586</v>
       </c>
     </row>
     <row r="25">
@@ -2267,19 +2267,19 @@
         <v>139803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119646</v>
+        <v>118605</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156328</v>
+        <v>156516</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6718451090456306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5749793778178743</v>
+        <v>0.5699760673576083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7512599622982817</v>
+        <v>0.7521644577165932</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -2288,19 +2288,19 @@
         <v>107665</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94052</v>
+        <v>93726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>121083</v>
+        <v>120119</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6033963640204781</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5271048976910555</v>
+        <v>0.5252795824118991</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6786009347079219</v>
+        <v>0.6731958621525364</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>187</v>
@@ -2309,19 +2309,19 @@
         <v>247468</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>225974</v>
+        <v>222420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268176</v>
+        <v>269470</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6402467703157936</v>
+        <v>0.6402467703157937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5846383676383248</v>
+        <v>0.5754429875148144</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6938235328940764</v>
+        <v>0.6971723764226275</v>
       </c>
     </row>
     <row r="27">
@@ -2338,19 +2338,19 @@
         <v>2877</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9154</v>
+        <v>9062</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0138252902368157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003615114050958924</v>
+        <v>0.003380123113817398</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04398894219865267</v>
+        <v>0.04355083356263317</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -2359,19 +2359,19 @@
         <v>12610</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6963</v>
+        <v>6782</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22009</v>
+        <v>21770</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07067344707341097</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03902372807693116</v>
+        <v>0.0380091205329214</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1233452524426556</v>
+        <v>0.1220081025088984</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>16</v>
@@ -2380,19 +2380,19 @@
         <v>15487</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>8448</v>
+        <v>8142</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>25304</v>
+        <v>24177</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04006839104501265</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02185691054933035</v>
+        <v>0.02106450784885931</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06546680395095252</v>
+        <v>0.06255003058410891</v>
       </c>
     </row>
     <row r="28">
@@ -2413,19 +2413,19 @@
         <v>58175</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>48679</v>
+        <v>48209</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68572</v>
+        <v>68851</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4325905640937436</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3619749540846013</v>
+        <v>0.3584853786094225</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5099022796731713</v>
+        <v>0.511976375112002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>138</v>
@@ -2434,19 +2434,19 @@
         <v>67593</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>59442</v>
+        <v>59162</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75721</v>
+        <v>75315</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5738825110768531</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5046760267879736</v>
+        <v>0.5022998209843144</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6428890512219051</v>
+        <v>0.6394419743537993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>211</v>
@@ -2455,19 +2455,19 @@
         <v>125768</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>114060</v>
+        <v>110923</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>139845</v>
+        <v>138651</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4985601439462997</v>
+        <v>0.4985601439462996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4521490313542338</v>
+        <v>0.4397104402323279</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5543635808452035</v>
+        <v>0.5496278182935463</v>
       </c>
     </row>
     <row r="29">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3468</v>
+        <v>3072</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005567335135042441</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02578751180481129</v>
+        <v>0.02284212761220223</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2508,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.003735425252003381</v>
+        <v>0.00373542525200338</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01890150971910989</v>
+        <v>0.01884625154680126</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4525</v>
+        <v>4497</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004712011615958378</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01793935749124831</v>
+        <v>0.01782605052437051</v>
       </c>
     </row>
     <row r="30">
@@ -2558,16 +2558,16 @@
         <v>738</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9542</v>
+        <v>10081</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02569279233868089</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005486986827253929</v>
+        <v>0.0054911378247162</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07095766046638256</v>
+        <v>0.07496158312703936</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2576,19 +2576,19 @@
         <v>2706</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6633</v>
+        <v>6275</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02297693657422243</v>
+        <v>0.02297693657422242</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007338393649969537</v>
+        <v>0.00732245957285224</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05631361813772122</v>
+        <v>0.05327673318878545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -2597,19 +2597,19 @@
         <v>6161</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2646</v>
+        <v>2834</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12145</v>
+        <v>13261</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02442475217399348</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0104885929221883</v>
+        <v>0.01123243068725833</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04814596245807555</v>
+        <v>0.05256643774571356</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>103211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93486</v>
+        <v>92960</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>111892</v>
+        <v>112132</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.767474399165437</v>
+        <v>0.7674743991654372</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6951622929438611</v>
+        <v>0.6912513193448139</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.832028572600876</v>
+        <v>0.8338097176741096</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>179</v>
@@ -2694,19 +2694,19 @@
         <v>89996</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>82805</v>
+        <v>83136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>96646</v>
+        <v>96782</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7640908421606855</v>
+        <v>0.7640908421606853</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7030385937544478</v>
+        <v>0.7058478517016356</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.820546776364356</v>
+        <v>0.8217019257212591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>312</v>
@@ -2715,19 +2715,19 @@
         <v>193207</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>181932</v>
+        <v>180873</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>204550</v>
+        <v>203221</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7658946075440695</v>
+        <v>0.7658946075440694</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7211996584800192</v>
+        <v>0.7170029472903161</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8108605187919192</v>
+        <v>0.8055900475801129</v>
       </c>
     </row>
     <row r="33">
@@ -2744,19 +2744,19 @@
         <v>6284</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2421</v>
+        <v>2675</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12259</v>
+        <v>13422</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04672927817823985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01800212210395926</v>
+        <v>0.01989301398510512</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09115947046367821</v>
+        <v>0.09980553686358283</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -2765,19 +2765,19 @@
         <v>2222</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5805</v>
+        <v>5639</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01886490646259466</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.004105751906264908</v>
+        <v>0.003949393846830702</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04928517749222631</v>
+        <v>0.04787267407132399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>11</v>
@@ -2786,19 +2786,19 @@
         <v>8506</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4329</v>
+        <v>4165</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15926</v>
+        <v>15973</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03371933009424673</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01715976653165138</v>
+        <v>0.01651195578477361</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06313175102051641</v>
+        <v>0.06331811695619273</v>
       </c>
     </row>
     <row r="34">
@@ -2819,19 +2819,19 @@
         <v>37380</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28501</v>
+        <v>28070</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>48627</v>
+        <v>46962</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2778434741785957</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2118440634716132</v>
+        <v>0.2086408432070402</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3614450444492198</v>
+        <v>0.3490657661391483</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>74</v>
@@ -2840,19 +2840,19 @@
         <v>47084</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39176</v>
+        <v>39165</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55032</v>
+        <v>55080</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5447193230070236</v>
+        <v>0.544719323007024</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4532353179418198</v>
+        <v>0.4531098211613849</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6366729717551435</v>
+        <v>0.6372307150653909</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>117</v>
@@ -2861,19 +2861,19 @@
         <v>84464</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>71942</v>
+        <v>72916</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>97650</v>
+        <v>97588</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.3822363819345651</v>
+        <v>0.382236381934565</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3255711268863382</v>
+        <v>0.3299791607524941</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4419097194962048</v>
+        <v>0.4416285492145367</v>
       </c>
     </row>
     <row r="35">
@@ -2893,16 +2893,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6064</v>
+        <v>5220</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.012760483001428</v>
+        <v>0.01276048300142801</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04507098451090098</v>
+        <v>0.03880324822155746</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5904</v>
+        <v>6166</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.007769008760736842</v>
+        <v>0.00776900876073684</v>
       </c>
       <c r="V35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02671612112460932</v>
+        <v>0.02790163711225128</v>
       </c>
     </row>
     <row r="36">
@@ -3000,19 +3000,19 @@
         <v>3019</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8107</v>
+        <v>7765</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.0224432511795319</v>
+        <v>0.02244325117953191</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.005360187446780773</v>
+        <v>0.005346674963310927</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06026043547996698</v>
+        <v>0.05771609078836373</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>3019</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9242</v>
+        <v>8892</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01366420181851175</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.003282662554444548</v>
+        <v>0.003295601028065284</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04182371836118843</v>
+        <v>0.04024226146128384</v>
       </c>
     </row>
     <row r="38">
@@ -3063,19 +3063,19 @@
         <v>109830</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>100377</v>
+        <v>101263</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>117952</v>
+        <v>117568</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8163644157659357</v>
+        <v>0.8163644157659358</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7460972830557372</v>
+        <v>0.7526849622034771</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8767346683348347</v>
+        <v>0.8738781248088079</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>78</v>
@@ -3084,19 +3084,19 @@
         <v>55497</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>47806</v>
+        <v>47350</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>62298</v>
+        <v>62269</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6420485055613578</v>
+        <v>0.642048505561358</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5530784190993601</v>
+        <v>0.5477944285197103</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7207282905973024</v>
+        <v>0.7203940533244549</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>202</v>
@@ -3105,19 +3105,19 @@
         <v>165327</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154172</v>
+        <v>153127</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>175447</v>
+        <v>175162</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7481778608031329</v>
+        <v>0.7481778608031328</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6976954996685197</v>
+        <v>0.6929649122427249</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7939739868250314</v>
+        <v>0.7926866214846882</v>
       </c>
     </row>
     <row r="39">
@@ -3137,16 +3137,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4677</v>
+        <v>4421</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.006540502143736042</v>
+        <v>0.006540502143736043</v>
       </c>
       <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03476186578510262</v>
+        <v>0.03285769905440147</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4434</v>
+        <v>4387</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01448441144630554</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05129421500044731</v>
+        <v>0.05075934334684708</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3</v>
@@ -3176,19 +3176,19 @@
         <v>2132</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6403</v>
+        <v>5851</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.009647893819249046</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.002797742133000574</v>
+        <v>0.00278423876124012</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02897432110110994</v>
+        <v>0.02647790236449338</v>
       </c>
     </row>
     <row r="40">
@@ -3209,19 +3209,19 @@
         <v>37353</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26081</v>
+        <v>25755</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53151</v>
+        <v>53012</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.09768486070993392</v>
+        <v>0.0976848607099339</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06820718957642075</v>
+        <v>0.06735522932737836</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1389996053724602</v>
+        <v>0.1386382641566112</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>109</v>
@@ -3230,19 +3230,19 @@
         <v>89050</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>74708</v>
+        <v>75237</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>103915</v>
+        <v>105630</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2498204462895299</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2095854521558241</v>
+        <v>0.2110699962806909</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2915221324652993</v>
+        <v>0.2963357946554511</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>139</v>
@@ -3251,19 +3251,19 @@
         <v>126402</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>105765</v>
+        <v>105234</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>149724</v>
+        <v>148226</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1710836316893044</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1431510127981982</v>
+        <v>0.1424323643263573</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2026491805335406</v>
+        <v>0.2006209319398368</v>
       </c>
     </row>
     <row r="41">
@@ -3280,19 +3280,19 @@
         <v>6892</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2350</v>
+        <v>2619</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17632</v>
+        <v>18258</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01802445700825211</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006145133100891055</v>
+        <v>0.006850254151726885</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04611097822330423</v>
+        <v>0.0477483872421128</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3301,19 +3301,19 @@
         <v>2861</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7235</v>
+        <v>7263</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.00802722597893973</v>
+        <v>0.008027225978939729</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001999672111074539</v>
+        <v>0.00199513817387371</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02029739258963488</v>
+        <v>0.02037626238575924</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>9</v>
@@ -3322,19 +3322,19 @@
         <v>9754</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4782</v>
+        <v>4288</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19807</v>
+        <v>20581</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01320122996408074</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006472937520345927</v>
+        <v>0.005803690316207023</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02680876397291756</v>
+        <v>0.02785546034380103</v>
       </c>
     </row>
     <row r="42">
@@ -3351,19 +3351,19 @@
         <v>29831</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19893</v>
+        <v>18833</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>42849</v>
+        <v>42687</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.07801308804905528</v>
+        <v>0.07801308804905527</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0520249308749138</v>
+        <v>0.04925112923528004</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1120598799349106</v>
+        <v>0.1116346943693183</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>29</v>
@@ -3372,19 +3372,19 @@
         <v>25022</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16867</v>
+        <v>16236</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>36479</v>
+        <v>34926</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07019745090544034</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0473199787268193</v>
+        <v>0.04554737679190882</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1023391313061393</v>
+        <v>0.09798277674467872</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>53</v>
@@ -3393,19 +3393,19 @@
         <v>54853</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>42738</v>
+        <v>40639</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>72138</v>
+        <v>73577</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07424238470850171</v>
+        <v>0.07424238470850172</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05784474563975473</v>
+        <v>0.0550048550203837</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09763778337052194</v>
+        <v>0.09958488373262991</v>
       </c>
     </row>
     <row r="43">
@@ -3422,19 +3422,19 @@
         <v>4541</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1100</v>
+        <v>1167</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10748</v>
+        <v>11197</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01187556392065294</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0028780206690614</v>
+        <v>0.003052684924121304</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02810863720563303</v>
+        <v>0.02928305761367095</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>8</v>
@@ -3443,19 +3443,19 @@
         <v>8393</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>3549</v>
+        <v>3609</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>18504</v>
+        <v>16707</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02354708724375375</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.00995617547640518</v>
+        <v>0.0101246096579848</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05191012998061292</v>
+        <v>0.04687051270245307</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>12</v>
@@ -3464,19 +3464,19 @@
         <v>12934</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>6817</v>
+        <v>6774</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>23600</v>
+        <v>22330</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01750656382188547</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.009226039832697748</v>
+        <v>0.00916851770897156</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03194182722351061</v>
+        <v>0.03022370165662055</v>
       </c>
     </row>
     <row r="44">
@@ -3493,19 +3493,19 @@
         <v>303298</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>282475</v>
+        <v>284473</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>320124</v>
+        <v>320096</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7931881650659182</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7387301664000419</v>
+        <v>0.7439547819261868</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8371898503131034</v>
+        <v>0.8371174427926508</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>290</v>
@@ -3514,19 +3514,19 @@
         <v>228527</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>211361</v>
+        <v>210072</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>245532</v>
+        <v>244013</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6411095277787355</v>
+        <v>0.6411095277787353</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.592952163594279</v>
+        <v>0.5893378265788101</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6888159122406825</v>
+        <v>0.6845537746327048</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>533</v>
@@ -3535,19 +3535,19 @@
         <v>531825</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>506856</v>
+        <v>505746</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>557201</v>
+        <v>556305</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.7198168691487207</v>
+        <v>0.7198168691487205</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6860218855989223</v>
+        <v>0.6845187632042948</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.754162703598402</v>
+        <v>0.7529493890252702</v>
       </c>
     </row>
     <row r="45">
@@ -3564,19 +3564,19 @@
         <v>26732</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>17887</v>
+        <v>16916</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>41426</v>
+        <v>40692</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.06991070819660518</v>
+        <v>0.06991070819660516</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04677786221852212</v>
+        <v>0.0442389856181146</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1083377116773168</v>
+        <v>0.106416922104078</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>44</v>
@@ -3585,19 +3585,19 @@
         <v>35244</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>25131</v>
+        <v>25810</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>46586</v>
+        <v>46219</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.09887323939338508</v>
+        <v>0.09887323939338505</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.07050331104892503</v>
+        <v>0.07240746118915854</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1306917512601258</v>
+        <v>0.1296641687395312</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>64</v>
@@ -3606,19 +3606,19 @@
         <v>61976</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>48186</v>
+        <v>46546</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>81760</v>
+        <v>78690</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.08388386369600088</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.06521874901634969</v>
+        <v>0.06299908613343558</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1106601784555775</v>
+        <v>0.1065051349443719</v>
       </c>
     </row>
     <row r="46">
@@ -3639,19 +3639,19 @@
         <v>132465</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>111727</v>
+        <v>111638</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>154264</v>
+        <v>152814</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2934600316577927</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2475179215814772</v>
+        <v>0.2473205752809129</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3417519452261579</v>
+        <v>0.3385404511246683</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>165</v>
@@ -3660,19 +3660,19 @@
         <v>140261</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>125292</v>
+        <v>124800</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>157090</v>
+        <v>156899</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.4510890190406443</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4029497939179547</v>
+        <v>0.4013665326659755</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5052135726669894</v>
+        <v>0.5046002365833573</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>274</v>
@@ -3681,19 +3681,19 @@
         <v>272726</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>243313</v>
+        <v>246358</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>300846</v>
+        <v>297658</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3577535685738649</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3191708812339743</v>
+        <v>0.323165025502298</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3946410216903362</v>
+        <v>0.3904591690457592</v>
       </c>
     </row>
     <row r="47">
@@ -3710,19 +3710,19 @@
         <v>9089</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3375</v>
+        <v>3406</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18202</v>
+        <v>18693</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02013599879195704</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.007475862957771057</v>
+        <v>0.007546424887218396</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04032445448853558</v>
+        <v>0.0414118218884949</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>8</v>
@@ -3731,19 +3731,19 @@
         <v>6730</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3188</v>
+        <v>3361</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13437</v>
+        <v>13102</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02164488361306649</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0102522254138595</v>
+        <v>0.01081039448655391</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04321497965324005</v>
+        <v>0.04213679815940115</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>15</v>
@@ -3752,19 +3752,19 @@
         <v>15819</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9361</v>
+        <v>8769</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>27962</v>
+        <v>26244</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02075144106281601</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01227947287627885</v>
+        <v>0.01150292085000429</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03667962275431841</v>
+        <v>0.03442641647246575</v>
       </c>
     </row>
     <row r="48">
@@ -3781,19 +3781,19 @@
         <v>25147</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>16215</v>
+        <v>15320</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>37209</v>
+        <v>36552</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.05571062234295995</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03592318167957644</v>
+        <v>0.03393865215301078</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0824322041133554</v>
+        <v>0.08097732788034048</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>27</v>
@@ -3802,19 +3802,19 @@
         <v>20992</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>14100</v>
+        <v>14614</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>30478</v>
+        <v>31165</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.06751140061800935</v>
+        <v>0.06751140061800937</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.04534507780900771</v>
+        <v>0.04699966100151066</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.09802074819169122</v>
+        <v>0.1002276154417427</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>49</v>
@@ -3823,19 +3823,19 @@
         <v>46139</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>34614</v>
+        <v>33972</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>61158</v>
+        <v>59685</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.06052391072514372</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0454051142810119</v>
+        <v>0.04456341037156761</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0802250299318238</v>
+        <v>0.07829253357681193</v>
       </c>
     </row>
     <row r="49">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>9015</v>
+        <v>7939</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.005755893710415656</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01997109340239205</v>
+        <v>0.01758812916922674</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>6735</v>
+        <v>8656</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.00429436188122766</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02166075583511336</v>
+        <v>0.02783920385573108</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3</v>
@@ -3894,19 +3894,19 @@
         <v>3933</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>10807</v>
+        <v>10452</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.00515976572549316</v>
+        <v>0.005159765725493161</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001688273122365038</v>
+        <v>0.001683267877457995</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01417618488219588</v>
+        <v>0.01371072250930023</v>
       </c>
     </row>
     <row r="50">
@@ -3923,19 +3923,19 @@
         <v>257603</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>234497</v>
+        <v>234987</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>278968</v>
+        <v>279412</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5706866348150375</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5194992610567174</v>
+        <v>0.5205848567221978</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6180189400153198</v>
+        <v>0.619002836518189</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>146</v>
@@ -3944,19 +3944,19 @@
         <v>119891</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>104819</v>
+        <v>105846</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>136107</v>
+        <v>135815</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3855790498034626</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3371054811347901</v>
+        <v>0.3404079257381915</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4377298353153425</v>
+        <v>0.4367911353372352</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>368</v>
@@ -3965,19 +3965,19 @@
         <v>377494</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>350738</v>
+        <v>352353</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>408883</v>
+        <v>407619</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.495185157910407</v>
+        <v>0.4951851579104071</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.460087631600946</v>
+        <v>0.4622056891601107</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5363603373642982</v>
+        <v>0.5347027927101147</v>
       </c>
     </row>
     <row r="51">
@@ -3994,19 +3994,19 @@
         <v>100000</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>82890</v>
+        <v>80979</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>120582</v>
+        <v>119644</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.2215371515829932</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1836331232662005</v>
+        <v>0.1793985535491143</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2671340659219354</v>
+        <v>0.2650551769884104</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>110</v>
@@ -4015,19 +4015,19 @@
         <v>92246</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>77615</v>
+        <v>78052</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>106946</v>
+        <v>108134</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.296669664873105</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2496162438782306</v>
+        <v>0.2510224988392405</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.3439467613128999</v>
+        <v>0.347766900815024</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>193</v>
@@ -4036,19 +4036,19 @@
         <v>192246</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>169516</v>
+        <v>169646</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>217881</v>
+        <v>218178</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.2521821179500143</v>
+        <v>0.2521821179500144</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.2223653112274172</v>
+        <v>0.2225359098992269</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2858091573087065</v>
+        <v>0.286199276601328</v>
       </c>
     </row>
     <row r="52">
@@ -4069,19 +4069,19 @@
         <v>428654</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>392180</v>
+        <v>388787</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>475265</v>
+        <v>472973</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2246388632526012</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2055243117350834</v>
+        <v>0.2037463681294059</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2490656408256705</v>
+        <v>0.24786466973608</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>756</v>
@@ -4090,19 +4090,19 @@
         <v>543690</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>510404</v>
+        <v>507902</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>577167</v>
+        <v>576102</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3645063182706986</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3421903674947679</v>
+        <v>0.3405130677230654</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3869504279306096</v>
+        <v>0.3862363767893331</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1142</v>
@@ -4111,19 +4111,19 @@
         <v>972344</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>924435</v>
+        <v>921545</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1026787</v>
+        <v>1026680</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.2860027964840825</v>
+        <v>0.2860027964840826</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2719109462146191</v>
+        <v>0.2710608481439207</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3020165496128742</v>
+        <v>0.3019849719331005</v>
       </c>
     </row>
     <row r="53">
@@ -4140,19 +4140,19 @@
         <v>38022</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01992578724657576</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>21</v>
@@ -4161,19 +4161,19 @@
         <v>16568</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01110774749341333</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>49</v>
@@ -4182,19 +4182,19 @@
         <v>54590</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01605705593538122</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="54">
@@ -4211,19 +4211,19 @@
         <v>84537</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.04430233687963146</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>83</v>
@@ -4232,19 +4232,19 @@
         <v>62397</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.04183278929682718</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>149</v>
@@ -4253,19 +4253,19 @@
         <v>146934</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="55">
@@ -4282,19 +4282,19 @@
         <v>20716</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01085659136771679</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>12</v>
@@ -4303,19 +4303,19 @@
         <v>12945</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.008678778872892499</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>30</v>
@@ -4324,19 +4324,19 @@
         <v>33662</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.009901121487280401</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="56">
@@ -4353,19 +4353,19 @@
         <v>1398758</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1354620</v>
+        <v>1350716</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1441383</v>
+        <v>1441380</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.7330281230803117</v>
+        <v>0.733028123080312</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7098972840323038</v>
+        <v>0.7078510502894906</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7553659590487641</v>
+        <v>0.755364499758494</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1243</v>
@@ -4374,19 +4374,19 @@
         <v>912798</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>879602</v>
+        <v>878135</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>947525</v>
+        <v>946430</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.6119673632375902</v>
+        <v>0.61196736323759</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.5897120341572002</v>
+        <v>0.588728593235382</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.6352494165956197</v>
+        <v>0.6345153015326277</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2466</v>
@@ -4395,19 +4395,19 @@
         <v>2311556</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2258475</v>
+        <v>2256810</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2366875</v>
+        <v>2369023</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.679915235718631</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6643020044436981</v>
+        <v>0.6638124359568103</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.6961865109463926</v>
+        <v>0.6968185156096185</v>
       </c>
     </row>
     <row r="57">
@@ -4424,19 +4424,19 @@
         <v>157744</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>130952</v>
+        <v>132244</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>185559</v>
+        <v>185082</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.08266680517370262</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.06862647780725617</v>
+        <v>0.06930309749398579</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0972435650658646</v>
+        <v>0.096993283964197</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>204</v>
@@ -4445,19 +4445,19 @@
         <v>170458</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>149545</v>
+        <v>146689</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>196291</v>
+        <v>193290</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.1142801098429939</v>
+        <v>0.114280109842994</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1002592643976408</v>
+        <v>0.09834485033220097</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1315996809280773</v>
+        <v>0.1295877529929924</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>335</v>
@@ -4466,19 +4466,19 @@
         <v>328202</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>295117</v>
+        <v>296679</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>366900</v>
+        <v>367483</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.09653648426882781</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.08680504770128712</v>
+        <v>0.08726450139682146</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.107918916403278</v>
+        <v>0.1080904569527336</v>
       </c>
     </row>
     <row r="58">
